--- a/ModeloTrabajoCD.xlsx
+++ b/ModeloTrabajoCD.xlsx
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -116,28 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -153,6 +131,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -161,31 +146,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +161,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -216,7 +231,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,28 +247,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,67 +267,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,115 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,21 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -537,11 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,21 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -598,6 +574,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,142 +615,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,12 +1150,12 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -1170,12 +1167,12 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -1187,285 +1184,285 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:11">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" customHeight="1" spans="1:11">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" customHeight="1" spans="1:11">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
